--- a/Project-KTXForecasting/Result/Forecasting_1DLag12_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_1DLag12_호남선.xlsx
@@ -528,25 +528,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>136884791001.2611</v>
+        <v>133445472740.0049</v>
       </c>
       <c r="C4">
-        <v>369979.4467281406</v>
+        <v>365301.8926039186</v>
       </c>
       <c r="D4">
-        <v>0.03206377640319274</v>
+        <v>0.03145267657825514</v>
       </c>
       <c r="E4">
-        <v>157641.65625</v>
+        <v>157977.734375</v>
       </c>
       <c r="F4">
-        <v>0.09986726721708646</v>
+        <v>0.1009030031993097</v>
       </c>
       <c r="G4">
-        <v>52843.71875</v>
+        <v>53207.53125</v>
       </c>
       <c r="H4">
-        <v>0.05076536981404643</v>
+        <v>0.05121410955943413</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -802,7 +802,7 @@
         <v>1009081.25</v>
       </c>
       <c r="F2">
-        <v>1002874.25</v>
+        <v>1002048.9375</v>
       </c>
       <c r="G2">
         <v>903989.875</v>
@@ -843,7 +843,7 @@
         <v>978737.6875</v>
       </c>
       <c r="F3">
-        <v>914227.25</v>
+        <v>931535.6875</v>
       </c>
       <c r="G3">
         <v>896490.375</v>
@@ -884,7 +884,7 @@
         <v>958222.0625</v>
       </c>
       <c r="F4">
-        <v>938601.8125</v>
+        <v>943140.1875</v>
       </c>
       <c r="G4">
         <v>921227.4375</v>
@@ -925,7 +925,7 @@
         <v>927141.9375</v>
       </c>
       <c r="F5">
-        <v>933361.25</v>
+        <v>943403.375</v>
       </c>
       <c r="G5">
         <v>937974.625</v>
@@ -966,7 +966,7 @@
         <v>931413.8125</v>
       </c>
       <c r="F6">
-        <v>866312.3125</v>
+        <v>874533.125</v>
       </c>
       <c r="G6">
         <v>959332.875</v>
@@ -1007,7 +1007,7 @@
         <v>967818.9375</v>
       </c>
       <c r="F7">
-        <v>899063.3125</v>
+        <v>894375.625</v>
       </c>
       <c r="G7">
         <v>946883.375</v>
@@ -1048,7 +1048,7 @@
         <v>1028504.1875</v>
       </c>
       <c r="F8">
-        <v>983361.625</v>
+        <v>970766.3125</v>
       </c>
       <c r="G8">
         <v>929243.375</v>
@@ -1089,7 +1089,7 @@
         <v>1056136.5</v>
       </c>
       <c r="F9">
-        <v>1012563.1875</v>
+        <v>1003936.0625</v>
       </c>
       <c r="G9">
         <v>958796.25</v>
@@ -1130,7 +1130,7 @@
         <v>1046735.875</v>
       </c>
       <c r="F10">
-        <v>995582.4375</v>
+        <v>999685.4375</v>
       </c>
       <c r="G10">
         <v>829290.6875</v>
@@ -1171,7 +1171,7 @@
         <v>1046905.5625</v>
       </c>
       <c r="F11">
-        <v>986439.875</v>
+        <v>1000449.4375</v>
       </c>
       <c r="G11">
         <v>643527.9375</v>
@@ -1212,7 +1212,7 @@
         <v>1041554</v>
       </c>
       <c r="F12">
-        <v>971511.125</v>
+        <v>966680.5</v>
       </c>
       <c r="G12">
         <v>537673.5625</v>
@@ -1253,7 +1253,7 @@
         <v>1088453.5</v>
       </c>
       <c r="F13">
-        <v>987697.4375</v>
+        <v>985027.375</v>
       </c>
       <c r="G13">
         <v>484461.5</v>
@@ -1294,7 +1294,7 @@
         <v>1122139.5</v>
       </c>
       <c r="F14">
-        <v>1046049.125</v>
+        <v>1037634.625</v>
       </c>
       <c r="G14">
         <v>511345.0625</v>
@@ -1335,7 +1335,7 @@
         <v>1133236.375</v>
       </c>
       <c r="F15">
-        <v>1065270.5</v>
+        <v>1051407.875</v>
       </c>
       <c r="G15">
         <v>482532.875</v>
@@ -1376,7 +1376,7 @@
         <v>1133940</v>
       </c>
       <c r="F16">
-        <v>1096170.5</v>
+        <v>1081054.375</v>
       </c>
       <c r="G16">
         <v>490639.34375</v>
@@ -1417,7 +1417,7 @@
         <v>1134382.25</v>
       </c>
       <c r="F17">
-        <v>1064592.125</v>
+        <v>1073763</v>
       </c>
       <c r="G17">
         <v>572856.625</v>
@@ -1458,7 +1458,7 @@
         <v>1108786.5</v>
       </c>
       <c r="F18">
-        <v>1026624.375</v>
+        <v>1047342.5</v>
       </c>
       <c r="G18">
         <v>620359.5625</v>
@@ -1499,7 +1499,7 @@
         <v>1120666.375</v>
       </c>
       <c r="F19">
-        <v>1031226.9375</v>
+        <v>1031592.6875</v>
       </c>
       <c r="G19">
         <v>631932.125</v>
@@ -1540,7 +1540,7 @@
         <v>1180209.875</v>
       </c>
       <c r="F20">
-        <v>1073948.625</v>
+        <v>1060548.625</v>
       </c>
       <c r="G20">
         <v>535692.375</v>
@@ -1581,7 +1581,7 @@
         <v>1185161.75</v>
       </c>
       <c r="F21">
-        <v>1086917.75</v>
+        <v>1071628.25</v>
       </c>
       <c r="G21">
         <v>454545.71875</v>
@@ -1622,7 +1622,7 @@
         <v>1209640.375</v>
       </c>
       <c r="F22">
-        <v>1165758.375</v>
+        <v>1148226.375</v>
       </c>
       <c r="G22">
         <v>474668.875</v>
@@ -1663,7 +1663,7 @@
         <v>1195656</v>
       </c>
       <c r="F23">
-        <v>1177227.75</v>
+        <v>1164763.25</v>
       </c>
       <c r="G23">
         <v>539412.125</v>
@@ -1704,7 +1704,7 @@
         <v>1234132.375</v>
       </c>
       <c r="F24">
-        <v>1160813.375</v>
+        <v>1166828.25</v>
       </c>
       <c r="G24">
         <v>672403.625</v>
@@ -1745,7 +1745,7 @@
         <v>1251246.375</v>
       </c>
       <c r="F25">
-        <v>1194384.75</v>
+        <v>1192854.625</v>
       </c>
       <c r="G25">
         <v>682526.75</v>
@@ -1786,7 +1786,7 @@
         <v>1262408.75</v>
       </c>
       <c r="F26">
-        <v>1204172</v>
+        <v>1214799.625</v>
       </c>
       <c r="G26">
         <v>666639.625</v>
@@ -1827,7 +1827,7 @@
         <v>1284597.125</v>
       </c>
       <c r="F27">
-        <v>1240642.875</v>
+        <v>1244382.25</v>
       </c>
       <c r="G27">
         <v>621696.5625</v>
@@ -1868,7 +1868,7 @@
         <v>1291120.5</v>
       </c>
       <c r="F28">
-        <v>1239273.75</v>
+        <v>1235823.75</v>
       </c>
       <c r="G28">
         <v>613447.75</v>
@@ -1909,7 +1909,7 @@
         <v>1300758.625</v>
       </c>
       <c r="F29">
-        <v>1229011</v>
+        <v>1256152.625</v>
       </c>
       <c r="G29">
         <v>680898.5</v>
@@ -1950,7 +1950,7 @@
         <v>1292561</v>
       </c>
       <c r="F30">
-        <v>1207162.5</v>
+        <v>1218288.25</v>
       </c>
       <c r="G30">
         <v>734421</v>
@@ -1991,7 +1991,7 @@
         <v>1310865</v>
       </c>
       <c r="F31">
-        <v>1205104.5</v>
+        <v>1215095.5</v>
       </c>
       <c r="G31">
         <v>768316.625</v>
@@ -2032,7 +2032,7 @@
         <v>1307370.125</v>
       </c>
       <c r="F32">
-        <v>1202683.625</v>
+        <v>1192331.25</v>
       </c>
       <c r="G32">
         <v>791907.9375</v>
@@ -2073,7 +2073,7 @@
         <v>1310645</v>
       </c>
       <c r="F33">
-        <v>1204658.5</v>
+        <v>1192777.75</v>
       </c>
       <c r="G33">
         <v>719944.4375</v>
@@ -2114,7 +2114,7 @@
         <v>1346747.375</v>
       </c>
       <c r="F34">
-        <v>1191292.875</v>
+        <v>1188235.625</v>
       </c>
       <c r="G34">
         <v>695756.3125</v>
@@ -2231,25 +2231,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>24412148861.91024</v>
+        <v>23957635659.00334</v>
       </c>
       <c r="C4">
-        <v>156243.8762381113</v>
+        <v>154782.5431339185</v>
       </c>
       <c r="D4">
-        <v>0.03147784831819476</v>
+        <v>0.03027138127764361</v>
       </c>
       <c r="E4">
-        <v>87098.73177083333</v>
+        <v>82577.17447916667</v>
       </c>
       <c r="F4">
-        <v>0.1291639748085481</v>
+        <v>0.1202167550674305</v>
       </c>
       <c r="G4">
-        <v>56192.796875</v>
+        <v>57487.671875</v>
       </c>
       <c r="H4">
-        <v>0.0965987863218435</v>
+        <v>0.09883061364534566</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2505,7 +2505,7 @@
         <v>533098.5</v>
       </c>
       <c r="F2">
-        <v>496174</v>
+        <v>502946.34375</v>
       </c>
       <c r="G2">
         <v>467351.40625</v>
@@ -2546,7 +2546,7 @@
         <v>499622.6875</v>
       </c>
       <c r="F3">
-        <v>487348.0625</v>
+        <v>489525.0625</v>
       </c>
       <c r="G3">
         <v>449300.625</v>
@@ -2587,7 +2587,7 @@
         <v>514574.4375</v>
       </c>
       <c r="F4">
-        <v>480011.59375</v>
+        <v>484104.4375</v>
       </c>
       <c r="G4">
         <v>438470.90625</v>
@@ -2628,7 +2628,7 @@
         <v>468078.65625</v>
       </c>
       <c r="F5">
-        <v>418057</v>
+        <v>425628.46875</v>
       </c>
       <c r="G5">
         <v>454075.4375</v>
@@ -2669,7 +2669,7 @@
         <v>468221.34375</v>
       </c>
       <c r="F6">
-        <v>424807.46875</v>
+        <v>434920.65625</v>
       </c>
       <c r="G6">
         <v>471093.5</v>
@@ -2710,7 +2710,7 @@
         <v>496311.96875</v>
       </c>
       <c r="F7">
-        <v>453476.8125</v>
+        <v>453343.6875</v>
       </c>
       <c r="G7">
         <v>489235.625</v>
@@ -2751,7 +2751,7 @@
         <v>531619.5625</v>
       </c>
       <c r="F8">
-        <v>498162.15625</v>
+        <v>503846.5625</v>
       </c>
       <c r="G8">
         <v>470432.71875</v>
@@ -2792,7 +2792,7 @@
         <v>549413.5625</v>
       </c>
       <c r="F9">
-        <v>497445.0625</v>
+        <v>508967.125</v>
       </c>
       <c r="G9">
         <v>444670.875</v>
@@ -2833,7 +2833,7 @@
         <v>556402.8125</v>
       </c>
       <c r="F10">
-        <v>522703.21875</v>
+        <v>519889.53125</v>
       </c>
       <c r="G10">
         <v>450456.6875</v>
@@ -2874,7 +2874,7 @@
         <v>534461.5</v>
       </c>
       <c r="F11">
-        <v>490593.4375</v>
+        <v>494198.5625</v>
       </c>
       <c r="G11">
         <v>446248.21875</v>
@@ -2915,7 +2915,7 @@
         <v>511865.8125</v>
       </c>
       <c r="F12">
-        <v>481556.90625</v>
+        <v>468903.53125</v>
       </c>
       <c r="G12">
         <v>473643.53125</v>
@@ -2956,7 +2956,7 @@
         <v>567172.125</v>
       </c>
       <c r="F13">
-        <v>528416.1875</v>
+        <v>528640.125</v>
       </c>
       <c r="G13">
         <v>456791.875</v>
@@ -2997,7 +2997,7 @@
         <v>567809.75</v>
       </c>
       <c r="F14">
-        <v>528005.0625</v>
+        <v>546576.625</v>
       </c>
       <c r="G14">
         <v>431267.8125</v>
@@ -3038,7 +3038,7 @@
         <v>587717.375</v>
       </c>
       <c r="F15">
-        <v>567509.625</v>
+        <v>574992</v>
       </c>
       <c r="G15">
         <v>415650.9375</v>
@@ -3079,7 +3079,7 @@
         <v>591529.625</v>
       </c>
       <c r="F16">
-        <v>560714.875</v>
+        <v>556026.5</v>
       </c>
       <c r="G16">
         <v>385672.40625</v>
@@ -3120,7 +3120,7 @@
         <v>560641.6875</v>
       </c>
       <c r="F17">
-        <v>545042.5</v>
+        <v>534948.3125</v>
       </c>
       <c r="G17">
         <v>392650.15625</v>
@@ -3161,7 +3161,7 @@
         <v>548846.3125</v>
       </c>
       <c r="F18">
-        <v>501342.3125</v>
+        <v>486000.625</v>
       </c>
       <c r="G18">
         <v>407978.5625</v>
@@ -3202,7 +3202,7 @@
         <v>572977.875</v>
       </c>
       <c r="F19">
-        <v>511894.125</v>
+        <v>515455.65625</v>
       </c>
       <c r="G19">
         <v>387432.28125</v>
@@ -3243,7 +3243,7 @@
         <v>608891.9375</v>
       </c>
       <c r="F20">
-        <v>530959.5</v>
+        <v>556823.25</v>
       </c>
       <c r="G20">
         <v>376741.59375</v>
@@ -3284,7 +3284,7 @@
         <v>633439.8125</v>
       </c>
       <c r="F21">
-        <v>574244.3125</v>
+        <v>581957.8125</v>
       </c>
       <c r="G21">
         <v>350401.125</v>
@@ -3325,7 +3325,7 @@
         <v>659208.3125</v>
       </c>
       <c r="F22">
-        <v>636203.6875</v>
+        <v>636338.9375</v>
       </c>
       <c r="G22">
         <v>316599.875</v>
@@ -3366,7 +3366,7 @@
         <v>616160.1875</v>
       </c>
       <c r="F23">
-        <v>583441.875</v>
+        <v>584445.4375</v>
       </c>
       <c r="G23">
         <v>323757</v>
@@ -3407,7 +3407,7 @@
         <v>647682.8125</v>
       </c>
       <c r="F24">
-        <v>633000.5625</v>
+        <v>627629.1875</v>
       </c>
       <c r="G24">
         <v>357650.28125</v>
@@ -3448,7 +3448,7 @@
         <v>655487.5625</v>
       </c>
       <c r="F25">
-        <v>627031.625</v>
+        <v>629060.8125</v>
       </c>
       <c r="G25">
         <v>349749.9375</v>
@@ -3489,7 +3489,7 @@
         <v>669360.1875</v>
       </c>
       <c r="F26">
-        <v>634595.25</v>
+        <v>648129.375</v>
       </c>
       <c r="G26">
         <v>313846</v>
@@ -3530,7 +3530,7 @@
         <v>689715.375</v>
       </c>
       <c r="F27">
-        <v>682957</v>
+        <v>675893.375</v>
       </c>
       <c r="G27">
         <v>264609.1875</v>
@@ -3571,7 +3571,7 @@
         <v>675465.0625</v>
       </c>
       <c r="F28">
-        <v>651170.625</v>
+        <v>644247.8125</v>
       </c>
       <c r="G28">
         <v>252009.734375</v>
@@ -3612,7 +3612,7 @@
         <v>665633.25</v>
       </c>
       <c r="F29">
-        <v>655095.375</v>
+        <v>646179.4375</v>
       </c>
       <c r="G29">
         <v>276816.6875</v>
@@ -3653,7 +3653,7 @@
         <v>672133.5625</v>
       </c>
       <c r="F30">
-        <v>629080.1875</v>
+        <v>625919.4375</v>
       </c>
       <c r="G30">
         <v>308631.15625</v>
@@ -3694,7 +3694,7 @@
         <v>680005.75</v>
       </c>
       <c r="F31">
-        <v>646494.6875</v>
+        <v>653030.5</v>
       </c>
       <c r="G31">
         <v>322753.5</v>
@@ -3735,7 +3735,7 @@
         <v>679015</v>
       </c>
       <c r="F32">
-        <v>617216.625</v>
+        <v>622319.875</v>
       </c>
       <c r="G32">
         <v>324740.65625</v>
@@ -3776,7 +3776,7 @@
         <v>670211.3125</v>
       </c>
       <c r="F33">
-        <v>633245.9375</v>
+        <v>627533.875</v>
       </c>
       <c r="G33">
         <v>293038.9375</v>
@@ -3817,7 +3817,7 @@
         <v>700905.625</v>
       </c>
       <c r="F34">
-        <v>640208.1875</v>
+        <v>629851.625</v>
       </c>
       <c r="G34">
         <v>282514.375</v>
@@ -3934,25 +3934,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>48081137337.29386</v>
+        <v>48352394558.42294</v>
       </c>
       <c r="C4">
-        <v>219274.1146083912</v>
+        <v>219891.7791970017</v>
       </c>
       <c r="D4">
-        <v>0.04548627123365694</v>
+        <v>0.04600280204553112</v>
       </c>
       <c r="E4">
-        <v>111307.5494791667</v>
+        <v>112419.9661458333</v>
       </c>
       <c r="F4">
-        <v>0.1491382686002905</v>
+        <v>0.1511335141802575</v>
       </c>
       <c r="G4">
-        <v>54474.71875</v>
+        <v>55649.546875</v>
       </c>
       <c r="H4">
-        <v>0.1058780537683422</v>
+        <v>0.1100445002886037</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4208,7 +4208,7 @@
         <v>477399.59375</v>
       </c>
       <c r="F2">
-        <v>484554.875</v>
+        <v>484742.65625</v>
       </c>
       <c r="G2">
         <v>457633.53125</v>
@@ -4249,7 +4249,7 @@
         <v>464952.84375</v>
       </c>
       <c r="F3">
-        <v>447712.28125</v>
+        <v>446454.4375</v>
       </c>
       <c r="G3">
         <v>450198.625</v>
@@ -4290,7 +4290,7 @@
         <v>456251.3125</v>
       </c>
       <c r="F4">
-        <v>449142.28125</v>
+        <v>448256.125</v>
       </c>
       <c r="G4">
         <v>409895.96875</v>
@@ -4331,7 +4331,7 @@
         <v>467614.15625</v>
       </c>
       <c r="F5">
-        <v>471029.5625</v>
+        <v>471146.5625</v>
       </c>
       <c r="G5">
         <v>411771.78125</v>
@@ -4372,7 +4372,7 @@
         <v>467077.6875</v>
       </c>
       <c r="F6">
-        <v>446003.375</v>
+        <v>446592.0625</v>
       </c>
       <c r="G6">
         <v>438703.34375</v>
@@ -4413,7 +4413,7 @@
         <v>471226.5625</v>
       </c>
       <c r="F7">
-        <v>431771.71875</v>
+        <v>428812.15625</v>
       </c>
       <c r="G7">
         <v>398011.625</v>
@@ -4454,7 +4454,7 @@
         <v>487753.90625</v>
       </c>
       <c r="F8">
-        <v>427420.90625</v>
+        <v>426817.5625</v>
       </c>
       <c r="G8">
         <v>395709.34375</v>
@@ -4495,7 +4495,7 @@
         <v>503820.96875</v>
       </c>
       <c r="F9">
-        <v>469053.28125</v>
+        <v>466367.03125</v>
       </c>
       <c r="G9">
         <v>423495.25</v>
@@ -4536,7 +4536,7 @@
         <v>500971.78125</v>
       </c>
       <c r="F10">
-        <v>472733.53125</v>
+        <v>470459.15625</v>
       </c>
       <c r="G10">
         <v>419527.71875</v>
@@ -4577,7 +4577,7 @@
         <v>500781.65625</v>
       </c>
       <c r="F11">
-        <v>465784.4375</v>
+        <v>465830.75</v>
       </c>
       <c r="G11">
         <v>423214.96875</v>
@@ -4618,7 +4618,7 @@
         <v>505067.75</v>
       </c>
       <c r="F12">
-        <v>480981.0625</v>
+        <v>476239.125</v>
       </c>
       <c r="G12">
         <v>414565.8125</v>
@@ -4659,7 +4659,7 @@
         <v>499237.5</v>
       </c>
       <c r="F13">
-        <v>465221.03125</v>
+        <v>463490.78125</v>
       </c>
       <c r="G13">
         <v>390571.03125</v>
@@ -4700,7 +4700,7 @@
         <v>524770.375</v>
       </c>
       <c r="F14">
-        <v>463304.71875</v>
+        <v>461481.3125</v>
       </c>
       <c r="G14">
         <v>406208.84375</v>
@@ -4741,7 +4741,7 @@
         <v>532324.875</v>
       </c>
       <c r="F15">
-        <v>501969.53125</v>
+        <v>499944.46875</v>
       </c>
       <c r="G15">
         <v>444739.78125</v>
@@ -4782,7 +4782,7 @@
         <v>525195.25</v>
       </c>
       <c r="F16">
-        <v>496078.21875</v>
+        <v>496229.1875</v>
       </c>
       <c r="G16">
         <v>440611.375</v>
@@ -4823,7 +4823,7 @@
         <v>537460.1875</v>
       </c>
       <c r="F17">
-        <v>515557.78125</v>
+        <v>517981.84375</v>
       </c>
       <c r="G17">
         <v>478388.3125</v>
@@ -4864,7 +4864,7 @@
         <v>547009.8125</v>
       </c>
       <c r="F18">
-        <v>540841.6875</v>
+        <v>541373.25</v>
       </c>
       <c r="G18">
         <v>522898.78125</v>
@@ -4905,7 +4905,7 @@
         <v>544275</v>
       </c>
       <c r="F19">
-        <v>517474.84375</v>
+        <v>516430.0625</v>
       </c>
       <c r="G19">
         <v>470685.03125</v>
@@ -4946,7 +4946,7 @@
         <v>553493.125</v>
       </c>
       <c r="F20">
-        <v>488549.5625</v>
+        <v>487310.5</v>
       </c>
       <c r="G20">
         <v>419468.1875</v>
@@ -4987,7 +4987,7 @@
         <v>555211.25</v>
       </c>
       <c r="F21">
-        <v>489296.1875</v>
+        <v>486411.4375</v>
       </c>
       <c r="G21">
         <v>417244.21875</v>
@@ -5028,7 +5028,7 @@
         <v>559924.6875</v>
       </c>
       <c r="F22">
-        <v>493981.4375</v>
+        <v>493278.625</v>
       </c>
       <c r="G22">
         <v>453600.75</v>
@@ -5069,7 +5069,7 @@
         <v>576997.9375</v>
       </c>
       <c r="F23">
-        <v>544908.5</v>
+        <v>545659.25</v>
       </c>
       <c r="G23">
         <v>506353.75</v>
@@ -5110,7 +5110,7 @@
         <v>590313.1875</v>
       </c>
       <c r="F24">
-        <v>582887.125</v>
+        <v>580796.125</v>
       </c>
       <c r="G24">
         <v>562351.6875</v>
@@ -5151,7 +5151,7 @@
         <v>593313.3125</v>
       </c>
       <c r="F25">
-        <v>549808.3125</v>
+        <v>551473.1875</v>
       </c>
       <c r="G25">
         <v>549788.625</v>
@@ -5192,7 +5192,7 @@
         <v>594020.3125</v>
       </c>
       <c r="F26">
-        <v>567819.125</v>
+        <v>566508.125</v>
       </c>
       <c r="G26">
         <v>528303</v>
@@ -5233,7 +5233,7 @@
         <v>609099.0625</v>
       </c>
       <c r="F27">
-        <v>594655.5</v>
+        <v>594555.875</v>
       </c>
       <c r="G27">
         <v>594035.3125</v>
@@ -5274,7 +5274,7 @@
         <v>618635.125</v>
       </c>
       <c r="F28">
-        <v>593439.375</v>
+        <v>592206.125</v>
       </c>
       <c r="G28">
         <v>591704.25</v>
@@ -5315,7 +5315,7 @@
         <v>607444.125</v>
       </c>
       <c r="F29">
-        <v>595220.9375</v>
+        <v>594787.9375</v>
       </c>
       <c r="G29">
         <v>598701.6875</v>
@@ -5356,7 +5356,7 @@
         <v>622109.0625</v>
       </c>
       <c r="F30">
-        <v>581781.375</v>
+        <v>581285.0625</v>
       </c>
       <c r="G30">
         <v>589586.6875</v>
@@ -5397,7 +5397,7 @@
         <v>628017.8125</v>
       </c>
       <c r="F31">
-        <v>598575.4375</v>
+        <v>596869.375</v>
       </c>
       <c r="G31">
         <v>626615.375</v>
@@ -5438,7 +5438,7 @@
         <v>626800.5</v>
       </c>
       <c r="F32">
-        <v>585938.6875</v>
+        <v>584227.4375</v>
       </c>
       <c r="G32">
         <v>613676.25</v>
@@ -5479,7 +5479,7 @@
         <v>621119.9375</v>
       </c>
       <c r="F33">
-        <v>574531.25</v>
+        <v>574085.125</v>
       </c>
       <c r="G33">
         <v>582213.5</v>
@@ -5520,7 +5520,7 @@
         <v>632496.0625</v>
       </c>
       <c r="F34">
-        <v>572703.25</v>
+        <v>572609.8125</v>
       </c>
       <c r="G34">
         <v>581533.0625</v>
